--- a/PhanCongVietClass_Pase1.xlsx
+++ b/PhanCongVietClass_Pase1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIKARI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIKARI\Documents\GitHub\DoAn1_CNTT_Nhom4_SPKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94082F4D-F881-4E3A-BB9D-001C04136DC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F769FBFB-4D1C-46D5-BA2A-13016C0D0555}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{366F9256-8C06-4CF1-8E9B-85AFE937F41B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Layer</t>
   </si>
@@ -86,18 +86,9 @@
     <t>int[] pool_size, int[]? strides, enum padding, string data_format</t>
   </si>
   <si>
-    <t>float rate(0 &lt;= rate &lt;= 1), ?noise_shape, int? seed</t>
-  </si>
-  <si>
     <t>int axis</t>
   </si>
   <si>
-    <t>axis, epsilon, centercale, center, scale</t>
-  </si>
-  <si>
-    <t>units, activation</t>
-  </si>
-  <si>
     <t>input(at least 2)</t>
   </si>
   <si>
@@ -138,13 +129,88 @@
   </si>
   <si>
     <t>Viết class bỏ trong folder layers, TUYỆT ĐỐI KHÔNG ĐƯỢC SỬA CÁC CLASS KHÁC, NẾU CÁC BẠN MUỐN TEST THÌ COPY PROJECT SANG MÁY MÌNH LÀM, TEST ỔN ĐỊNH RỒI COMMIT LÊN GITHUB</t>
+  </si>
+  <si>
+    <t>Code mẫu</t>
+  </si>
+  <si>
+    <t>x = layers.Add(name='add1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.Average(name='average1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.Activation(activation = 'relu', name = 'conv1')(data)</t>
+  </si>
+  <si>
+    <t>Link tham khảo</t>
+  </si>
+  <si>
+    <t>int axis, float epsilon, bool center, bool scale</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/BatchNormalization#__init__</t>
+  </si>
+  <si>
+    <t>positive int units, string activation</t>
+  </si>
+  <si>
+    <t>x = layers.AvgPool2D((3,4),(5,6),'vaild', 'channels_last', name = 'avgpool2d_1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.BatchNormalization(4, 12.344, 'false', 'true', name = 'batchnormalization1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.Concatenate(13, name = 'conactenate1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.Dense(15, 'linear', name = 'dense1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.Dropout(0.22332, 3, 13, name = 'dropout1')(data)</t>
+  </si>
+  <si>
+    <t>float rate(0 &lt;= rate &lt;= 1), int noise_shape, int? seed</t>
+  </si>
+  <si>
+    <t>x = layers.MaxPool2D((3,4),(5,6),'vaild', 'channels_last', name = 'maxpool2d_1')(data)</t>
+  </si>
+  <si>
+    <t>x = layers.Softmax(3, name = 'softmax1')(data)</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Dropout#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Dense#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Concatenate#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/AveragePooling2D#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Average#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Add#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Activation#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/MaxPool2D#__init__</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Softmax#__init__</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +222,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,8 +242,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,7 +274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -206,27 +292,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="4">
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4C2A79-5A9B-4974-B3F1-F2E682E97C7B}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,14 +718,15 @@
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="77.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -632,75 +735,211 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -710,67 +949,207 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -780,181 +1159,324 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="E12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+    </row>
+    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+    </row>
+    <row r="14" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
     </row>
     <row r="19" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-    </row>
-    <row r="20" spans="1:41" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="6"/>
-      <c r="AG20" s="6"/>
-      <c r="AH20" s="6"/>
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+    </row>
+    <row r="20" spans="1:41" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="30">
+    <mergeCell ref="T13:AD13"/>
+    <mergeCell ref="T14:AD14"/>
+    <mergeCell ref="T1:AD1"/>
+    <mergeCell ref="T2:AD2"/>
+    <mergeCell ref="T3:AD3"/>
+    <mergeCell ref="T4:AD4"/>
+    <mergeCell ref="T5:AD5"/>
+    <mergeCell ref="T6:AD6"/>
+    <mergeCell ref="T7:AD7"/>
+    <mergeCell ref="T8:AD8"/>
+    <mergeCell ref="T9:AD9"/>
+    <mergeCell ref="T10:AD10"/>
+    <mergeCell ref="T11:AD11"/>
+    <mergeCell ref="T12:AD12"/>
+    <mergeCell ref="G5:S5"/>
     <mergeCell ref="A20:AH20"/>
     <mergeCell ref="A19:AO19"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="G2:S2"/>
+    <mergeCell ref="G3:S3"/>
+    <mergeCell ref="G4:S4"/>
+    <mergeCell ref="G6:S6"/>
+    <mergeCell ref="G7:S7"/>
+    <mergeCell ref="G8:S8"/>
+    <mergeCell ref="G9:S9"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="G11:S11"/>
+    <mergeCell ref="G12:S12"/>
+    <mergeCell ref="G13:S13"/>
+    <mergeCell ref="G14:S14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="T7" r:id="rId1" location="__init__" xr:uid="{319335F2-7342-464E-8B3D-1172C900752D}"/>
+    <hyperlink ref="T10" r:id="rId2" location="__init__" xr:uid="{8515D50A-604A-4247-82C8-2E192877FE9F}"/>
+    <hyperlink ref="T9" r:id="rId3" location="__init__" xr:uid="{D3FBBC8F-42E3-4F60-92CE-AF76AB915995}"/>
+    <hyperlink ref="T8" r:id="rId4" location="__init__" xr:uid="{E92CA9CD-6282-4118-B841-AFDACE01143A}"/>
+    <hyperlink ref="T6" r:id="rId5" location="__init__" xr:uid="{EFE8717E-A26A-412E-8D7C-602C05047373}"/>
+    <hyperlink ref="T5" r:id="rId6" location="__init__" xr:uid="{683707BB-7B4F-45E6-AF9E-7A92E3FBD5A3}"/>
+    <hyperlink ref="T4" r:id="rId7" location="__init__" xr:uid="{B1A90C9B-03A4-423E-BF4C-CAFD68E2F2F9}"/>
+    <hyperlink ref="T3" r:id="rId8" location="__init__" xr:uid="{BA11391B-516E-4131-8A4A-0C5481F36C2D}"/>
+    <hyperlink ref="T11" r:id="rId9" location="__init__" xr:uid="{9311F024-F531-4CE2-B4EC-44FA8B9A1D3D}"/>
+    <hyperlink ref="T12" r:id="rId10" location="__init__" xr:uid="{56C50770-CA92-4EB5-891C-326A48D4C237}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/PhanCongVietClass_Pase1.xlsx
+++ b/PhanCongVietClass_Pase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIKARI\Documents\GitHub\DoAn1_CNTT_Nhom4_SPKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F769FBFB-4D1C-46D5-BA2A-13016C0D0555}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157887D-02C3-4360-8230-2694ED76B97C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{366F9256-8C06-4CF1-8E9B-85AFE937F41B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Layer</t>
   </si>
@@ -298,10 +298,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -311,19 +323,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -709,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4C2A79-5A9B-4974-B3F1-F2E682E97C7B}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,75 +744,78 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="10" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+    </row>
+    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -823,37 +827,37 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="13" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -865,37 +869,37 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="13" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -907,37 +911,37 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="13" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -949,37 +953,40 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="13" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -991,37 +998,40 @@
       <c r="C7" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="13" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1033,37 +1043,37 @@
       <c r="C8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="13" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1075,37 +1085,37 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="13" t="s">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1117,37 +1127,37 @@
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="13" t="s">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1159,37 +1169,40 @@
       <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="13" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1201,199 +1214,205 @@
       <c r="C12" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="13" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-    </row>
-    <row r="13" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+    </row>
+    <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-    </row>
-    <row r="14" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
     </row>
     <row r="19" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="13"/>
+      <c r="AM19" s="13"/>
+      <c r="AN19" s="13"/>
+      <c r="AO19" s="13"/>
     </row>
     <row r="20" spans="1:41" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -1432,20 +1451,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="T13:AD13"/>
-    <mergeCell ref="T14:AD14"/>
-    <mergeCell ref="T1:AD1"/>
-    <mergeCell ref="T2:AD2"/>
-    <mergeCell ref="T3:AD3"/>
-    <mergeCell ref="T4:AD4"/>
-    <mergeCell ref="T5:AD5"/>
-    <mergeCell ref="T6:AD6"/>
-    <mergeCell ref="T7:AD7"/>
-    <mergeCell ref="T8:AD8"/>
-    <mergeCell ref="T9:AD9"/>
-    <mergeCell ref="T10:AD10"/>
-    <mergeCell ref="T11:AD11"/>
-    <mergeCell ref="T12:AD12"/>
     <mergeCell ref="G5:S5"/>
     <mergeCell ref="A20:AH20"/>
     <mergeCell ref="A19:AO19"/>
@@ -1462,6 +1467,20 @@
     <mergeCell ref="G12:S12"/>
     <mergeCell ref="G13:S13"/>
     <mergeCell ref="G14:S14"/>
+    <mergeCell ref="T13:AD13"/>
+    <mergeCell ref="T14:AD14"/>
+    <mergeCell ref="T1:AD1"/>
+    <mergeCell ref="T2:AD2"/>
+    <mergeCell ref="T3:AD3"/>
+    <mergeCell ref="T4:AD4"/>
+    <mergeCell ref="T5:AD5"/>
+    <mergeCell ref="T6:AD6"/>
+    <mergeCell ref="T7:AD7"/>
+    <mergeCell ref="T8:AD8"/>
+    <mergeCell ref="T9:AD9"/>
+    <mergeCell ref="T10:AD10"/>
+    <mergeCell ref="T11:AD11"/>
+    <mergeCell ref="T12:AD12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1" location="__init__" xr:uid="{319335F2-7342-464E-8B3D-1172C900752D}"/>

--- a/PhanCongVietClass_Pase1.xlsx
+++ b/PhanCongVietClass_Pase1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIKARI\Documents\GitHub\DoAn1_CNTT_Nhom4_SPKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0157887D-02C3-4360-8230-2694ED76B97C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F4C86E-E41F-4ECA-9B35-5F024A6DDC1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{366F9256-8C06-4CF1-8E9B-85AFE937F41B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Layer</t>
   </si>
@@ -155,9 +155,6 @@
     <t>positive int units, string activation</t>
   </si>
   <si>
-    <t>x = layers.AvgPool2D((3,4),(5,6),'vaild', 'channels_last', name = 'avgpool2d_1')(data)</t>
-  </si>
-  <si>
     <t>x = layers.BatchNormalization(4, 12.344, 'false', 'true', name = 'batchnormalization1')(data)</t>
   </si>
   <si>
@@ -204,6 +201,12 @@
   </si>
   <si>
     <t>https://www.tensorflow.org/api_docs/python/tf/keras/layers/Softmax#__init__</t>
+  </si>
+  <si>
+    <t>int[] pool_size, int[]? strides, string padding, string data_format</t>
+  </si>
+  <si>
+    <t>x = layers.AvgPool2D((3,4),(5,6),padding = 'vaild', data_format = 'channels_last', name = 'avgpool2d_1')(data)</t>
   </si>
 </sst>
 </file>
@@ -308,12 +311,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -324,7 +321,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4C2A79-5A9B-4974-B3F1-F2E682E97C7B}">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,34 +747,34 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="8" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
     </row>
     <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -792,30 +795,30 @@
       <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -830,34 +833,34 @@
       <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -872,34 +875,34 @@
       <c r="E4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -914,41 +917,41 @@
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -959,34 +962,34 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1004,34 +1007,34 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="9" t="s">
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1046,34 +1049,34 @@
       <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
+      <c r="G8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1088,41 +1091,41 @@
       <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
+      <c r="G9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1130,34 +1133,34 @@
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
+      <c r="G10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1175,34 +1178,34 @@
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
+      <c r="G11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1217,34 +1220,34 @@
       <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
+      <c r="G12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
     </row>
     <row r="13" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1265,30 +1268,30 @@
       <c r="F13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
     </row>
     <row r="14" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1306,113 +1309,113 @@
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
     </row>
     <row r="19" spans="1:41" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
     </row>
     <row r="20" spans="1:41" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
     </row>
     <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -1451,6 +1454,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="T13:AD13"/>
+    <mergeCell ref="T14:AD14"/>
+    <mergeCell ref="T1:AD1"/>
+    <mergeCell ref="T2:AD2"/>
+    <mergeCell ref="T3:AD3"/>
+    <mergeCell ref="T4:AD4"/>
+    <mergeCell ref="T5:AD5"/>
+    <mergeCell ref="T6:AD6"/>
+    <mergeCell ref="T7:AD7"/>
+    <mergeCell ref="T8:AD8"/>
+    <mergeCell ref="T9:AD9"/>
+    <mergeCell ref="T10:AD10"/>
+    <mergeCell ref="T11:AD11"/>
+    <mergeCell ref="T12:AD12"/>
     <mergeCell ref="G5:S5"/>
     <mergeCell ref="A20:AH20"/>
     <mergeCell ref="A19:AO19"/>
@@ -1467,20 +1484,6 @@
     <mergeCell ref="G12:S12"/>
     <mergeCell ref="G13:S13"/>
     <mergeCell ref="G14:S14"/>
-    <mergeCell ref="T13:AD13"/>
-    <mergeCell ref="T14:AD14"/>
-    <mergeCell ref="T1:AD1"/>
-    <mergeCell ref="T2:AD2"/>
-    <mergeCell ref="T3:AD3"/>
-    <mergeCell ref="T4:AD4"/>
-    <mergeCell ref="T5:AD5"/>
-    <mergeCell ref="T6:AD6"/>
-    <mergeCell ref="T7:AD7"/>
-    <mergeCell ref="T8:AD8"/>
-    <mergeCell ref="T9:AD9"/>
-    <mergeCell ref="T10:AD10"/>
-    <mergeCell ref="T11:AD11"/>
-    <mergeCell ref="T12:AD12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1" location="__init__" xr:uid="{319335F2-7342-464E-8B3D-1172C900752D}"/>
